--- a/docs/Legal Repo Project Plan.xlsx
+++ b/docs/Legal Repo Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\legalonline\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE51FD3E-306C-4342-9A09-EC9DCA0E5928}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654A796-D546-45AA-B8A3-C27204A19BB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="681" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" tabRatio="681" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPQ Rollout Batam PP" sheetId="33" state="hidden" r:id="rId1"/>
@@ -3210,6 +3210,24 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3223,24 +3241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7582,11 +7582,11 @@
   <dimension ref="A1:XDI47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="16" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
       <selection pane="topRight" activeCell="BC12" sqref="BC12"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -8310,7 +8310,7 @@
         <v>19</v>
       </c>
       <c r="T24" s="158"/>
-      <c r="U24" s="154"/>
+      <c r="U24" s="158"/>
       <c r="V24" s="154"/>
       <c r="W24" s="154"/>
       <c r="X24" s="156"/>
@@ -8359,11 +8359,11 @@
       <c r="Q25" s="154"/>
       <c r="R25" s="154"/>
       <c r="S25" s="154"/>
-      <c r="T25" s="158">
-        <v>3</v>
-      </c>
-      <c r="U25" s="158"/>
-      <c r="V25" s="154"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="158">
+        <v>14</v>
+      </c>
+      <c r="V25" s="158"/>
       <c r="W25" s="154"/>
       <c r="X25" s="156"/>
       <c r="Y25" s="154"/>
@@ -8411,13 +8411,13 @@
       <c r="Q26" s="154"/>
       <c r="R26" s="154"/>
       <c r="S26" s="154"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158">
-        <v>7</v>
-      </c>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="156"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158">
+        <v>4</v>
+      </c>
       <c r="Y26" s="154"/>
       <c r="Z26" s="154"/>
       <c r="AA26" s="155"/>
@@ -8464,12 +8464,12 @@
       <c r="R27" s="74"/>
       <c r="S27" s="55"/>
       <c r="T27" s="77"/>
-      <c r="U27" s="158">
-        <v>8</v>
-      </c>
-      <c r="V27" s="74"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="77"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="158">
+        <v>6</v>
+      </c>
       <c r="Y27" s="74"/>
       <c r="Z27" s="74"/>
       <c r="AA27" s="55"/>
@@ -29324,32 +29324,32 @@
       <c r="CI12" s="313"/>
     </row>
     <row r="13" spans="1:87" ht="11.25" customHeight="1" thickBot="1">
-      <c r="F13" s="325" t="s">
+      <c r="F13" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="326"/>
-      <c r="H13" s="326"/>
-      <c r="I13" s="326"/>
-      <c r="J13" s="326"/>
-      <c r="K13" s="326"/>
-      <c r="L13" s="327"/>
-      <c r="M13" s="328" t="s">
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
+      <c r="M13" s="323" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="328"/>
-      <c r="R13" s="329" t="s">
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="323"/>
+      <c r="Q13" s="323"/>
+      <c r="R13" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="329"/>
-      <c r="T13" s="329"/>
-      <c r="U13" s="329"/>
-      <c r="V13" s="329"/>
-      <c r="W13" s="329"/>
-      <c r="X13" s="329"/>
-      <c r="Y13" s="330"/>
+      <c r="S13" s="324"/>
+      <c r="T13" s="324"/>
+      <c r="U13" s="324"/>
+      <c r="V13" s="324"/>
+      <c r="W13" s="324"/>
+      <c r="X13" s="324"/>
+      <c r="Y13" s="325"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -29564,8 +29564,8 @@
       <c r="Y16" s="22">
         <v>4</v>
       </c>
-      <c r="Z16" s="320"/>
-      <c r="AA16" s="321"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="327"/>
       <c r="AB16" s="24"/>
       <c r="AC16" s="13" t="s">
         <v>8</v>
@@ -29605,8 +29605,8 @@
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
       <c r="Y17" s="28"/>
-      <c r="Z17" s="322"/>
-      <c r="AA17" s="323"/>
+      <c r="Z17" s="328"/>
+      <c r="AA17" s="329"/>
       <c r="AB17" s="30"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
@@ -29861,8 +29861,8 @@
       <c r="W23" s="49"/>
       <c r="X23" s="49"/>
       <c r="Y23" s="50"/>
-      <c r="Z23" s="324"/>
-      <c r="AA23" s="324"/>
+      <c r="Z23" s="330"/>
+      <c r="AA23" s="330"/>
       <c r="AB23" s="37"/>
       <c r="AC23" s="14" t="s">
         <v>72</v>
@@ -29900,8 +29900,8 @@
       <c r="W24" s="27"/>
       <c r="X24" s="27"/>
       <c r="Y24" s="28"/>
-      <c r="Z24" s="322"/>
-      <c r="AA24" s="323"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="329"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
@@ -31960,6 +31960,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="A17:A78"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="AT12:CI12"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="M13:Q13"/>
@@ -31970,11 +31975,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="A17:A78"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E78" xr:uid="{00000000-0002-0000-0300-000000000000}">
